--- a/1C/Data_loading/СырЫ!!!!!!17,01,19.xlsx
+++ b/1C/Data_loading/СырЫ!!!!!!17,01,19.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59326CBC-60B6-4AC8-B334-65C4E07855CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="4" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="395">
   <si>
     <t>Цена</t>
   </si>
@@ -752,13 +753,460 @@
   </si>
   <si>
     <t>Ожидается</t>
+  </si>
+  <si>
+    <t>MK-00000018</t>
+  </si>
+  <si>
+    <t>MK-00000019</t>
+  </si>
+  <si>
+    <t>MK-00000020</t>
+  </si>
+  <si>
+    <t>MK-00000021</t>
+  </si>
+  <si>
+    <t>MK-00000022</t>
+  </si>
+  <si>
+    <t>MK-00000023</t>
+  </si>
+  <si>
+    <t>MK-00000024</t>
+  </si>
+  <si>
+    <t>MK-00000025</t>
+  </si>
+  <si>
+    <t>MK-00000026</t>
+  </si>
+  <si>
+    <t>MK-00000027</t>
+  </si>
+  <si>
+    <t>MK-00000028</t>
+  </si>
+  <si>
+    <t>MK-00000029</t>
+  </si>
+  <si>
+    <t>MK-00000030</t>
+  </si>
+  <si>
+    <t>MK-00000031</t>
+  </si>
+  <si>
+    <t>MK-00000032</t>
+  </si>
+  <si>
+    <t>MK-00000033</t>
+  </si>
+  <si>
+    <t>MK-00000034</t>
+  </si>
+  <si>
+    <t>MK-00000035</t>
+  </si>
+  <si>
+    <t>MK-00000036</t>
+  </si>
+  <si>
+    <t>MK-00000037</t>
+  </si>
+  <si>
+    <t>MK-00000038</t>
+  </si>
+  <si>
+    <t>MK-00000039</t>
+  </si>
+  <si>
+    <t>Деликатесные сыры</t>
+  </si>
+  <si>
+    <t>MK-00000040</t>
+  </si>
+  <si>
+    <t>MK-00000041</t>
+  </si>
+  <si>
+    <t>MK-00000042</t>
+  </si>
+  <si>
+    <t>MK-00000043</t>
+  </si>
+  <si>
+    <t>MK-00000044</t>
+  </si>
+  <si>
+    <t>MK-00000045</t>
+  </si>
+  <si>
+    <t>MK-00000046</t>
+  </si>
+  <si>
+    <t>MK-00000047</t>
+  </si>
+  <si>
+    <t>MK-00000048</t>
+  </si>
+  <si>
+    <t>MK-00000049</t>
+  </si>
+  <si>
+    <t>MK-00000050</t>
+  </si>
+  <si>
+    <t>MK-00000051</t>
+  </si>
+  <si>
+    <t>MK-00000052</t>
+  </si>
+  <si>
+    <t>MK-00000053</t>
+  </si>
+  <si>
+    <t>MK-00000054</t>
+  </si>
+  <si>
+    <t>MK-00000055</t>
+  </si>
+  <si>
+    <t>MK-00000056</t>
+  </si>
+  <si>
+    <t>MK-00000057</t>
+  </si>
+  <si>
+    <t>MK-00000058</t>
+  </si>
+  <si>
+    <t>MK-00000059</t>
+  </si>
+  <si>
+    <t>MK-00000060</t>
+  </si>
+  <si>
+    <t>MK-00000061</t>
+  </si>
+  <si>
+    <t>MK-00000062</t>
+  </si>
+  <si>
+    <t>MK-00000063</t>
+  </si>
+  <si>
+    <t>MK-00000064</t>
+  </si>
+  <si>
+    <t>MK-00000065</t>
+  </si>
+  <si>
+    <t>MK-00000066</t>
+  </si>
+  <si>
+    <t>MK-00000067</t>
+  </si>
+  <si>
+    <t>MK-00000068</t>
+  </si>
+  <si>
+    <t>MK-00000069</t>
+  </si>
+  <si>
+    <t>MK-00000070</t>
+  </si>
+  <si>
+    <t>MK-00000071</t>
+  </si>
+  <si>
+    <t>MK-00000072</t>
+  </si>
+  <si>
+    <t>MK-00000073</t>
+  </si>
+  <si>
+    <t>MK-00000074</t>
+  </si>
+  <si>
+    <t>MK-00000075</t>
+  </si>
+  <si>
+    <t>MK-00000076</t>
+  </si>
+  <si>
+    <t>MK-00000077</t>
+  </si>
+  <si>
+    <t>MK-00000078</t>
+  </si>
+  <si>
+    <t>MK-00000079</t>
+  </si>
+  <si>
+    <t>MK-00000080</t>
+  </si>
+  <si>
+    <t>MK-00000081</t>
+  </si>
+  <si>
+    <t>MK-00000082</t>
+  </si>
+  <si>
+    <t>MK-00000083</t>
+  </si>
+  <si>
+    <t>MK-00000084</t>
+  </si>
+  <si>
+    <t>MK-00000085</t>
+  </si>
+  <si>
+    <t>MK-00000086</t>
+  </si>
+  <si>
+    <t>MK-00000087</t>
+  </si>
+  <si>
+    <t>MK-00000088</t>
+  </si>
+  <si>
+    <t>MK-00000089</t>
+  </si>
+  <si>
+    <t>MK-00000090</t>
+  </si>
+  <si>
+    <t>MK-00000091</t>
+  </si>
+  <si>
+    <t>MK-00000092</t>
+  </si>
+  <si>
+    <t>MK-00000093</t>
+  </si>
+  <si>
+    <t>MK-00000094</t>
+  </si>
+  <si>
+    <t>MK-00000095</t>
+  </si>
+  <si>
+    <t>MK-00000096</t>
+  </si>
+  <si>
+    <t>MK-00000097</t>
+  </si>
+  <si>
+    <t>MK-00000098</t>
+  </si>
+  <si>
+    <t>MK-00000099</t>
+  </si>
+  <si>
+    <t>MK-00000100</t>
+  </si>
+  <si>
+    <t>MK-00000101</t>
+  </si>
+  <si>
+    <t>MK-00000102</t>
+  </si>
+  <si>
+    <t>MK-00000103</t>
+  </si>
+  <si>
+    <t>MK-00000104</t>
+  </si>
+  <si>
+    <t>MK-00000105</t>
+  </si>
+  <si>
+    <t>MK-00000106</t>
+  </si>
+  <si>
+    <t>MK-00000107</t>
+  </si>
+  <si>
+    <t>MK-00000108</t>
+  </si>
+  <si>
+    <t>MK-00000109</t>
+  </si>
+  <si>
+    <t>MK-00000110</t>
+  </si>
+  <si>
+    <t>MK-00000111</t>
+  </si>
+  <si>
+    <t>MK-00000112</t>
+  </si>
+  <si>
+    <t>MK-00000113</t>
+  </si>
+  <si>
+    <t>MK-00000114</t>
+  </si>
+  <si>
+    <t>MK-00000115</t>
+  </si>
+  <si>
+    <t>MK-00000116</t>
+  </si>
+  <si>
+    <t>MK-00000117</t>
+  </si>
+  <si>
+    <t>MK-00000118</t>
+  </si>
+  <si>
+    <t>MK-00000119</t>
+  </si>
+  <si>
+    <t>MK-00000120</t>
+  </si>
+  <si>
+    <t>MK-00000121</t>
+  </si>
+  <si>
+    <t>MK-00000122</t>
+  </si>
+  <si>
+    <t>MK-00000123</t>
+  </si>
+  <si>
+    <t>MK-00000124</t>
+  </si>
+  <si>
+    <t>MK-00000125</t>
+  </si>
+  <si>
+    <t>MK-00000126</t>
+  </si>
+  <si>
+    <t>MK-00000127</t>
+  </si>
+  <si>
+    <t>MK-00000128</t>
+  </si>
+  <si>
+    <t>MK-00000129</t>
+  </si>
+  <si>
+    <t>MK-00000130</t>
+  </si>
+  <si>
+    <t>MK-00000131</t>
+  </si>
+  <si>
+    <t>MK-00000132</t>
+  </si>
+  <si>
+    <t>MK-00000133</t>
+  </si>
+  <si>
+    <t>MK-00000134</t>
+  </si>
+  <si>
+    <t>MK-00000135</t>
+  </si>
+  <si>
+    <t>MK-00000136</t>
+  </si>
+  <si>
+    <t>MK-00000137</t>
+  </si>
+  <si>
+    <t>MK-00000138</t>
+  </si>
+  <si>
+    <t>MK-00000139</t>
+  </si>
+  <si>
+    <t>MK-00000140</t>
+  </si>
+  <si>
+    <t>MK-00000141</t>
+  </si>
+  <si>
+    <t>MK-00000142</t>
+  </si>
+  <si>
+    <t>MK-00000143</t>
+  </si>
+  <si>
+    <t>MK-00000144</t>
+  </si>
+  <si>
+    <t>MK-00000145</t>
+  </si>
+  <si>
+    <t>MK-00000146</t>
+  </si>
+  <si>
+    <t>MK-00000147</t>
+  </si>
+  <si>
+    <t>MK-00000148</t>
+  </si>
+  <si>
+    <t>MK-00000149</t>
+  </si>
+  <si>
+    <t>MK-00000150</t>
+  </si>
+  <si>
+    <t>MK-00000151</t>
+  </si>
+  <si>
+    <t>MK-00000152</t>
+  </si>
+  <si>
+    <t>MK-00000153</t>
+  </si>
+  <si>
+    <t>MK-00000154</t>
+  </si>
+  <si>
+    <t>MK-00000155</t>
+  </si>
+  <si>
+    <t>MK-00000156</t>
+  </si>
+  <si>
+    <t>MK-00000157</t>
+  </si>
+  <si>
+    <t>MK-00000158</t>
+  </si>
+  <si>
+    <t>MK-00000159</t>
+  </si>
+  <si>
+    <t>MK-00000160</t>
+  </si>
+  <si>
+    <t>MK-00000161</t>
+  </si>
+  <si>
+    <t>MK-00000162</t>
+  </si>
+  <si>
+    <t>MK-00000163</t>
+  </si>
+  <si>
+    <t>MK-00000164</t>
+  </si>
+  <si>
+    <t>MK-00000165</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +1285,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1147,11 +1600,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,16 +1712,22 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,10 +1736,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,13 +1745,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_Лист4" xfId="2" xr:uid="{92F91E86-434A-45D6-A8CE-EEB59E91B5FE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1385,6 +1843,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1420,6 +1895,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1595,11 +2087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection sqref="A1:H169"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,19 +2099,19 @@
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1643,19 +2135,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -1676,8 +2168,11 @@
       <c r="H4" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
@@ -1698,8 +2193,11 @@
       <c r="H5" s="34">
         <v>493.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
@@ -1720,8 +2218,11 @@
       <c r="H6" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
@@ -1742,8 +2243,11 @@
       <c r="H7" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
@@ -1764,8 +2268,11 @@
       <c r="H8" s="34">
         <v>267.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1786,8 +2293,11 @@
       <c r="H9" s="34">
         <v>367.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -1808,8 +2318,11 @@
       <c r="H10" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
@@ -1830,8 +2343,11 @@
       <c r="H11" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
@@ -1852,8 +2368,11 @@
       <c r="H12" s="34">
         <v>404.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
@@ -1874,8 +2393,11 @@
       <c r="H13" s="34">
         <v>388.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1896,20 +2418,23 @@
       <c r="H14" s="34">
         <v>320.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="I14" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1930,8 +2455,11 @@
       <c r="H16" s="34">
         <v>346.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -1952,8 +2480,11 @@
       <c r="H17" s="34">
         <v>346.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
@@ -1974,8 +2505,11 @@
       <c r="H18" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
@@ -1996,8 +2530,11 @@
       <c r="H19" s="34">
         <v>299.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
@@ -2018,8 +2555,11 @@
       <c r="H20" s="34">
         <v>313.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
@@ -2040,8 +2580,11 @@
       <c r="H21" s="34">
         <v>313.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
@@ -2062,20 +2605,23 @@
       <c r="H22" s="34">
         <v>313.95</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="I22" s="47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
@@ -2096,20 +2642,23 @@
       <c r="H24" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="I24" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>50</v>
       </c>
@@ -2130,8 +2679,11 @@
       <c r="H26" s="34">
         <v>299.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>53</v>
       </c>
@@ -2156,8 +2708,11 @@
       <c r="H27" s="34">
         <v>210</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
@@ -2178,18 +2733,23 @@
       <c r="H28" s="34">
         <v>309.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>59</v>
       </c>
@@ -2210,8 +2770,11 @@
       <c r="H30" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>62</v>
       </c>
@@ -2232,8 +2795,11 @@
       <c r="H31" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>66</v>
       </c>
@@ -2254,8 +2820,11 @@
       <c r="H32" s="34">
         <v>1029</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>67</v>
       </c>
@@ -2276,8 +2845,11 @@
       <c r="H33" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>69</v>
       </c>
@@ -2298,8 +2870,11 @@
       <c r="H34" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>71</v>
       </c>
@@ -2320,8 +2895,11 @@
       <c r="H35" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
@@ -2342,8 +2920,11 @@
       <c r="H36" s="34">
         <v>2100</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>77</v>
       </c>
@@ -2364,8 +2945,11 @@
       <c r="H37" s="34">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>81</v>
       </c>
@@ -2386,20 +2970,23 @@
       <c r="H38" s="34">
         <v>59.85</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="I38" s="47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
@@ -2420,8 +3007,11 @@
       <c r="H40" s="34">
         <v>325.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>50</v>
       </c>
@@ -2442,8 +3032,11 @@
       <c r="H41" s="34">
         <v>299.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>86</v>
       </c>
@@ -2464,8 +3057,11 @@
       <c r="H42" s="34">
         <v>136.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -2486,8 +3082,11 @@
       <c r="H43" s="34">
         <v>252</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>90</v>
       </c>
@@ -2508,8 +3107,11 @@
       <c r="H44" s="34">
         <v>546</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>92</v>
       </c>
@@ -2530,8 +3132,11 @@
       <c r="H45" s="34">
         <v>189</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -2552,8 +3157,11 @@
       <c r="H46" s="34">
         <v>136.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -2574,8 +3182,11 @@
       <c r="H47" s="34">
         <v>120.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
@@ -2596,8 +3207,11 @@
       <c r="H48" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>95</v>
       </c>
@@ -2618,8 +3232,11 @@
       <c r="H49" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>96</v>
       </c>
@@ -2640,8 +3257,11 @@
       <c r="H50" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>97</v>
       </c>
@@ -2662,20 +3282,23 @@
       <c r="H51" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="I51" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2700,8 +3323,11 @@
       <c r="H53" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>101</v>
       </c>
@@ -2722,8 +3348,11 @@
       <c r="H54" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>103</v>
       </c>
@@ -2744,20 +3373,23 @@
       <c r="H55" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+      <c r="I55" s="47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>108</v>
       </c>
@@ -2778,8 +3410,11 @@
       <c r="H57" s="34">
         <v>399</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>112</v>
       </c>
@@ -2802,8 +3437,11 @@
       <c r="H58" s="34">
         <v>456.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>114</v>
       </c>
@@ -2826,8 +3464,11 @@
       <c r="H59" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>115</v>
       </c>
@@ -2850,8 +3491,11 @@
       <c r="H60" s="34">
         <v>456.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>116</v>
       </c>
@@ -2874,8 +3518,11 @@
       <c r="H61" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>117</v>
       </c>
@@ -2896,8 +3543,11 @@
       <c r="H62" s="34">
         <v>498.75</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>121</v>
       </c>
@@ -2918,8 +3568,11 @@
       <c r="H63" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>125</v>
       </c>
@@ -2942,32 +3595,35 @@
       <c r="H64" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
+      <c r="I64" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>131</v>
       </c>
@@ -2988,8 +3644,11 @@
       <c r="H67" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>132</v>
       </c>
@@ -3010,8 +3669,11 @@
       <c r="H68" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>133</v>
       </c>
@@ -3032,8 +3694,11 @@
       <c r="H69" s="34">
         <v>399</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>134</v>
       </c>
@@ -3054,8 +3719,11 @@
       <c r="H70" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>135</v>
       </c>
@@ -3076,8 +3744,11 @@
       <c r="H71" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>240</v>
       </c>
@@ -3098,8 +3769,11 @@
       <c r="H72" s="34">
         <v>367.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>137</v>
       </c>
@@ -3120,8 +3794,11 @@
       <c r="H73" s="34">
         <v>367.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>138</v>
       </c>
@@ -3142,8 +3819,11 @@
       <c r="H74" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>139</v>
       </c>
@@ -3164,8 +3844,11 @@
       <c r="H75" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>140</v>
       </c>
@@ -3186,8 +3869,11 @@
       <c r="H76" s="34">
         <v>351.75</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>141</v>
       </c>
@@ -3208,8 +3894,11 @@
       <c r="H77" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>142</v>
       </c>
@@ -3230,8 +3919,11 @@
       <c r="H78" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>143</v>
       </c>
@@ -3252,8 +3944,11 @@
       <c r="H79" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>145</v>
       </c>
@@ -3274,8 +3969,11 @@
       <c r="H80" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>146</v>
       </c>
@@ -3296,8 +3994,11 @@
       <c r="H81" s="34">
         <v>351.75</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>147</v>
       </c>
@@ -3318,8 +4019,11 @@
       <c r="H82" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>241</v>
       </c>
@@ -3340,8 +4044,11 @@
       <c r="H83" s="34">
         <v>372.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>148</v>
       </c>
@@ -3364,8 +4071,11 @@
       <c r="H84" s="34">
         <v>341.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>149</v>
       </c>
@@ -3386,8 +4096,11 @@
       <c r="H85" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>150</v>
       </c>
@@ -3410,8 +4123,11 @@
       <c r="H86" s="34">
         <v>294</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>53</v>
       </c>
@@ -3436,8 +4152,11 @@
       <c r="H87" s="34">
         <v>210</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>151</v>
       </c>
@@ -3458,8 +4177,11 @@
       <c r="H88" s="34">
         <v>414.75</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>152</v>
       </c>
@@ -3480,8 +4202,11 @@
       <c r="H89" s="34">
         <v>346.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>153</v>
       </c>
@@ -3502,8 +4227,11 @@
       <c r="H90" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>154</v>
       </c>
@@ -3524,8 +4252,11 @@
       <c r="H91" s="34">
         <v>341.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>156</v>
       </c>
@@ -3546,8 +4277,11 @@
       <c r="H92" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>157</v>
       </c>
@@ -3568,8 +4302,11 @@
       <c r="H93" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>158</v>
       </c>
@@ -3590,8 +4327,11 @@
       <c r="H94" s="34">
         <v>514.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>159</v>
       </c>
@@ -3614,8 +4354,11 @@
       <c r="H95" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>160</v>
       </c>
@@ -3636,8 +4379,11 @@
       <c r="H96" s="34">
         <v>388.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>161</v>
       </c>
@@ -3658,8 +4404,11 @@
       <c r="H97" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>163</v>
       </c>
@@ -3680,8 +4429,11 @@
       <c r="H98" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>166</v>
       </c>
@@ -3702,8 +4454,11 @@
       <c r="H99" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>167</v>
       </c>
@@ -3724,8 +4479,11 @@
       <c r="H100" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>168</v>
       </c>
@@ -3746,8 +4504,11 @@
       <c r="H101" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>169</v>
       </c>
@@ -3768,8 +4529,11 @@
       <c r="H102" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>171</v>
       </c>
@@ -3790,8 +4554,11 @@
       <c r="H103" s="34">
         <v>372.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>172</v>
       </c>
@@ -3812,8 +4579,11 @@
       <c r="H104" s="34">
         <v>378</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>173</v>
       </c>
@@ -3834,8 +4604,11 @@
       <c r="H105" s="34">
         <v>294</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>174</v>
       </c>
@@ -3856,8 +4629,11 @@
       <c r="H106" s="34">
         <v>346.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>242</v>
       </c>
@@ -3878,8 +4654,11 @@
       <c r="H107" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>243</v>
       </c>
@@ -3900,8 +4679,11 @@
       <c r="H108" s="34">
         <v>441</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>175</v>
       </c>
@@ -3922,20 +4704,23 @@
       <c r="H109" s="34">
         <v>304.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="36" t="s">
+      <c r="I109" s="47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>177</v>
       </c>
@@ -3956,8 +4741,11 @@
       <c r="H111" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>178</v>
       </c>
@@ -3978,8 +4766,11 @@
       <c r="H112" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>179</v>
       </c>
@@ -4000,8 +4791,11 @@
       <c r="H113" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>181</v>
       </c>
@@ -4022,8 +4816,11 @@
       <c r="H114" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>182</v>
       </c>
@@ -4044,8 +4841,11 @@
       <c r="H115" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>183</v>
       </c>
@@ -4066,8 +4866,11 @@
       <c r="H116" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>184</v>
       </c>
@@ -4088,20 +4891,23 @@
       <c r="H117" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36" t="s">
+      <c r="I117" s="47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>186</v>
       </c>
@@ -4124,8 +4930,11 @@
       <c r="H119" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>187</v>
       </c>
@@ -4148,8 +4957,11 @@
       <c r="H120" s="34">
         <v>330.75</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>188</v>
       </c>
@@ -4172,8 +4984,11 @@
       <c r="H121" s="34">
         <v>320.25</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>189</v>
       </c>
@@ -4196,8 +5011,11 @@
       <c r="H122" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>190</v>
       </c>
@@ -4220,8 +5038,11 @@
       <c r="H123" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>191</v>
       </c>
@@ -4242,8 +5063,11 @@
       <c r="H124" s="34">
         <v>336</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>192</v>
       </c>
@@ -4264,8 +5088,11 @@
       <c r="H125" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>193</v>
       </c>
@@ -4288,8 +5115,11 @@
       <c r="H126" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>194</v>
       </c>
@@ -4310,8 +5140,11 @@
       <c r="H127" s="34">
         <v>388.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>195</v>
       </c>
@@ -4332,8 +5165,11 @@
       <c r="H128" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>196</v>
       </c>
@@ -4354,8 +5190,11 @@
       <c r="H129" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>197</v>
       </c>
@@ -4376,8 +5215,11 @@
       <c r="H130" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>198</v>
       </c>
@@ -4398,8 +5240,11 @@
       <c r="H131" s="34">
         <v>404.25</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>199</v>
       </c>
@@ -4420,8 +5265,11 @@
       <c r="H132" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>200</v>
       </c>
@@ -4442,8 +5290,11 @@
       <c r="H133" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>201</v>
       </c>
@@ -4464,8 +5315,11 @@
       <c r="H134" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>202</v>
       </c>
@@ -4486,8 +5340,11 @@
       <c r="H135" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>203</v>
       </c>
@@ -4508,8 +5365,11 @@
       <c r="H136" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I136" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
         <v>205</v>
       </c>
@@ -4530,20 +5390,23 @@
       <c r="H137" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="36" t="s">
+      <c r="I137" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>207</v>
       </c>
@@ -4564,8 +5427,11 @@
       <c r="H139" s="34">
         <v>357</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>209</v>
       </c>
@@ -4586,8 +5452,11 @@
       <c r="H140" s="34">
         <v>351.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>210</v>
       </c>
@@ -4608,8 +5477,11 @@
       <c r="H141" s="34">
         <v>351.75</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I141" s="47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>211</v>
       </c>
@@ -4630,20 +5502,23 @@
       <c r="H142" s="34">
         <v>472.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="36" t="s">
+      <c r="I142" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>213</v>
       </c>
@@ -4664,8 +5539,11 @@
       <c r="H144" s="34">
         <v>362.25</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>214</v>
       </c>
@@ -4686,8 +5564,11 @@
       <c r="H145" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>215</v>
       </c>
@@ -4708,8 +5589,11 @@
       <c r="H146" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>216</v>
       </c>
@@ -4730,8 +5614,11 @@
       <c r="H147" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>217</v>
       </c>
@@ -4752,8 +5639,11 @@
       <c r="H148" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>218</v>
       </c>
@@ -4774,8 +5664,11 @@
       <c r="H149" s="34">
         <v>399</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>219</v>
       </c>
@@ -4796,8 +5689,11 @@
       <c r="H150" s="34">
         <v>399</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>220</v>
       </c>
@@ -4818,8 +5714,11 @@
       <c r="H151" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
         <v>221</v>
       </c>
@@ -4840,20 +5739,23 @@
       <c r="H152" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="42" t="s">
+      <c r="I152" s="47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-    </row>
-    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>224</v>
       </c>
@@ -4876,20 +5778,23 @@
       <c r="H154" s="34">
         <v>395.85</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="36" t="s">
+      <c r="I154" s="47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="37"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="39"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="39"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>226</v>
       </c>
@@ -4912,8 +5817,11 @@
       <c r="H156" s="34">
         <v>451.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I156" s="47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
         <v>227</v>
       </c>
@@ -4936,20 +5844,23 @@
       <c r="H157" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="36" t="s">
+      <c r="I157" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-    </row>
-    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="39"/>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="39"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20" t="s">
         <v>244</v>
       </c>
@@ -4970,20 +5881,23 @@
       <c r="H159" s="34">
         <v>336</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="38" t="s">
+      <c r="I159" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="39"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="37"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="37"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>231</v>
       </c>
@@ -5004,8 +5918,11 @@
       <c r="H161" s="34">
         <v>346.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I161" s="47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
         <v>232</v>
       </c>
@@ -5026,20 +5943,23 @@
       <c r="H162" s="34">
         <v>404.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="36" t="s">
+      <c r="I162" s="47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="39"/>
+      <c r="H163" s="39"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>234</v>
       </c>
@@ -5062,8 +5982,11 @@
       <c r="H164" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>235</v>
       </c>
@@ -5086,8 +6009,11 @@
       <c r="H165" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
         <v>236</v>
       </c>
@@ -5110,8 +6036,11 @@
       <c r="H166" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>237</v>
       </c>
@@ -5134,8 +6063,11 @@
       <c r="H167" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>238</v>
       </c>
@@ -5158,8 +6090,11 @@
       <c r="H168" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I168" s="47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="31" t="s">
         <v>239</v>
       </c>
@@ -5182,9 +6117,24 @@
       <c r="H169" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="I169" s="47" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:H66"/>
     <mergeCell ref="A160:H160"/>
     <mergeCell ref="A163:H163"/>
     <mergeCell ref="A118:H118"/>
@@ -5193,18 +6143,6 @@
     <mergeCell ref="A153:H153"/>
     <mergeCell ref="A155:H155"/>
     <mergeCell ref="A158:H158"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1C/Data_loading/СырЫ!!!!!!17,01,19.xlsx
+++ b/1C/Data_loading/СырЫ!!!!!!17,01,19.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59326CBC-60B6-4AC8-B334-65C4E07855CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D6967-E605-43D5-80CD-21F45EC8F552}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="395">
   <si>
     <t>Цена</t>
   </si>
@@ -1605,7 +1606,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1712,16 +1713,34 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,24 +1749,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2088,30 +2090,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161:J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2135,19 +2138,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -2168,11 +2171,14 @@
       <c r="H4" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="36" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
@@ -2193,11 +2199,15 @@
       <c r="H5" s="34">
         <v>493.5</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="36" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>H5*0.95</f>
+        <v>468.82499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
@@ -2218,11 +2228,15 @@
       <c r="H6" s="34">
         <v>472.5</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="36" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" ref="J6:J69" si="0">H6*0.95</f>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
@@ -2243,11 +2257,15 @@
       <c r="H7" s="34">
         <v>472.5</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="36" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
@@ -2268,11 +2286,15 @@
       <c r="H8" s="34">
         <v>267.75</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="36" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>254.36249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -2293,11 +2315,15 @@
       <c r="H9" s="34">
         <v>367.5</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="36" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -2318,11 +2344,15 @@
       <c r="H10" s="34">
         <v>472.5</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="36" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
@@ -2343,11 +2373,15 @@
       <c r="H11" s="34">
         <v>362.25</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
@@ -2368,11 +2402,15 @@
       <c r="H12" s="34">
         <v>404.25</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="36" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
@@ -2393,11 +2431,15 @@
       <c r="H13" s="34">
         <v>388.5</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="36" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -2418,23 +2460,31 @@
       <c r="H14" s="34">
         <v>320.25</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="36" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>304.23750000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -2455,11 +2505,15 @@
       <c r="H16" s="34">
         <v>346.5</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="36" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -2480,11 +2534,15 @@
       <c r="H17" s="34">
         <v>346.5</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
@@ -2505,11 +2563,14 @@
       <c r="H18" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="36" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
@@ -2530,11 +2591,15 @@
       <c r="H19" s="34">
         <v>299.25</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="36" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
@@ -2555,11 +2620,15 @@
       <c r="H20" s="34">
         <v>313.95</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="36" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
@@ -2580,11 +2649,15 @@
       <c r="H21" s="34">
         <v>313.95</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
@@ -2605,23 +2678,31 @@
       <c r="H22" s="34">
         <v>313.95</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="36" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
@@ -2642,23 +2723,30 @@
       <c r="H24" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="36" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>50</v>
       </c>
@@ -2679,11 +2767,15 @@
       <c r="H26" s="34">
         <v>299.25</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="36" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>53</v>
       </c>
@@ -2708,11 +2800,15 @@
       <c r="H27" s="34">
         <v>210</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="36" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
@@ -2733,23 +2829,31 @@
       <c r="H28" s="34">
         <v>309.75</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="36" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>294.26249999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>59</v>
       </c>
@@ -2770,11 +2874,14 @@
       <c r="H30" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="36" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>62</v>
       </c>
@@ -2795,11 +2902,14 @@
       <c r="H31" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="36" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>66</v>
       </c>
@@ -2820,11 +2930,15 @@
       <c r="H32" s="34">
         <v>1029</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="36" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>977.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>67</v>
       </c>
@@ -2845,11 +2959,14 @@
       <c r="H33" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="36" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>69</v>
       </c>
@@ -2870,11 +2987,14 @@
       <c r="H34" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="36" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>71</v>
       </c>
@@ -2895,11 +3015,14 @@
       <c r="H35" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="36" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
@@ -2920,11 +3043,15 @@
       <c r="H36" s="34">
         <v>2100</v>
       </c>
-      <c r="I36" s="47" t="s">
+      <c r="I36" s="36" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>77</v>
       </c>
@@ -2945,11 +3072,15 @@
       <c r="H37" s="34">
         <v>52.5</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="36" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>49.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>81</v>
       </c>
@@ -2970,23 +3101,31 @@
       <c r="H38" s="34">
         <v>59.85</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="36" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>56.857500000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
@@ -3007,11 +3146,15 @@
       <c r="H40" s="34">
         <v>325.5</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="36" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>309.22499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>50</v>
       </c>
@@ -3032,11 +3175,15 @@
       <c r="H41" s="34">
         <v>299.25</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="36" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>86</v>
       </c>
@@ -3057,11 +3204,15 @@
       <c r="H42" s="34">
         <v>136.5</v>
       </c>
-      <c r="I42" s="47" t="s">
+      <c r="I42" s="36" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>129.67499999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -3082,11 +3233,15 @@
       <c r="H43" s="34">
         <v>252</v>
       </c>
-      <c r="I43" s="47" t="s">
+      <c r="I43" s="36" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>90</v>
       </c>
@@ -3107,11 +3262,15 @@
       <c r="H44" s="34">
         <v>546</v>
       </c>
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="36" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>518.69999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>92</v>
       </c>
@@ -3132,11 +3291,15 @@
       <c r="H45" s="34">
         <v>189</v>
       </c>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="36" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>179.54999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -3157,11 +3320,15 @@
       <c r="H46" s="34">
         <v>136.5</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="36" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>129.67499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -3182,11 +3349,15 @@
       <c r="H47" s="34">
         <v>120.75</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="36" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>114.71249999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
@@ -3207,11 +3378,14 @@
       <c r="H48" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="36" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>95</v>
       </c>
@@ -3232,11 +3406,14 @@
       <c r="H49" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="36" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>96</v>
       </c>
@@ -3257,11 +3434,14 @@
       <c r="H50" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="36" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>97</v>
       </c>
@@ -3282,23 +3462,30 @@
       <c r="H51" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="36" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>100</v>
       </c>
@@ -3323,11 +3510,14 @@
       <c r="H53" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="36" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>101</v>
       </c>
@@ -3348,11 +3538,14 @@
       <c r="H54" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="36" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>103</v>
       </c>
@@ -3373,23 +3566,30 @@
       <c r="H55" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="36" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>108</v>
       </c>
@@ -3410,11 +3610,15 @@
       <c r="H57" s="34">
         <v>399</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="36" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>112</v>
       </c>
@@ -3437,11 +3641,15 @@
       <c r="H58" s="34">
         <v>456.75</v>
       </c>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="36" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>433.91249999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>114</v>
       </c>
@@ -3464,11 +3672,14 @@
       <c r="H59" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="36" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>115</v>
       </c>
@@ -3491,11 +3702,15 @@
       <c r="H60" s="34">
         <v>456.75</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="36" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>433.91249999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>116</v>
       </c>
@@ -3518,11 +3733,14 @@
       <c r="H61" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="36" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>117</v>
       </c>
@@ -3543,11 +3761,15 @@
       <c r="H62" s="34">
         <v>498.75</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="36" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>473.8125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>121</v>
       </c>
@@ -3568,11 +3790,15 @@
       <c r="H63" s="34">
         <v>451.5</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="36" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>125</v>
       </c>
@@ -3595,35 +3821,47 @@
       <c r="H64" s="34">
         <v>451.5</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="36" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42" t="s">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-    </row>
-    <row r="66" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>131</v>
       </c>
@@ -3644,11 +3882,15 @@
       <c r="H67" s="34">
         <v>362.25</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="I67" s="36" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>132</v>
       </c>
@@ -3669,11 +3911,15 @@
       <c r="H68" s="34">
         <v>362.25</v>
       </c>
-      <c r="I68" s="47" t="s">
+      <c r="I68" s="36" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>133</v>
       </c>
@@ -3694,11 +3940,15 @@
       <c r="H69" s="34">
         <v>399</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="36" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>134</v>
       </c>
@@ -3719,11 +3969,14 @@
       <c r="H70" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="36" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>135</v>
       </c>
@@ -3744,11 +3997,14 @@
       <c r="H71" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I71" s="47" t="s">
+      <c r="I71" s="36" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>240</v>
       </c>
@@ -3769,11 +4025,15 @@
       <c r="H72" s="34">
         <v>367.5</v>
       </c>
-      <c r="I72" s="47" t="s">
+      <c r="I72" s="36" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f t="shared" ref="J70:J133" si="1">H72*0.95</f>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>137</v>
       </c>
@@ -3794,11 +4054,15 @@
       <c r="H73" s="34">
         <v>367.5</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="36" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>138</v>
       </c>
@@ -3819,11 +4083,15 @@
       <c r="H74" s="34">
         <v>357</v>
       </c>
-      <c r="I74" s="47" t="s">
+      <c r="I74" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>139</v>
       </c>
@@ -3844,11 +4112,15 @@
       <c r="H75" s="34">
         <v>472.5</v>
       </c>
-      <c r="I75" s="47" t="s">
+      <c r="I75" s="36" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>140</v>
       </c>
@@ -3869,11 +4141,15 @@
       <c r="H76" s="34">
         <v>351.75</v>
       </c>
-      <c r="I76" s="47" t="s">
+      <c r="I76" s="36" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>141</v>
       </c>
@@ -3894,11 +4170,15 @@
       <c r="H77" s="34">
         <v>451.5</v>
       </c>
-      <c r="I77" s="47" t="s">
+      <c r="I77" s="36" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>142</v>
       </c>
@@ -3919,11 +4199,14 @@
       <c r="H78" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I78" s="47" t="s">
+      <c r="I78" s="36" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>143</v>
       </c>
@@ -3944,11 +4227,14 @@
       <c r="H79" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="36" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>145</v>
       </c>
@@ -3969,11 +4255,14 @@
       <c r="H80" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I80" s="47" t="s">
+      <c r="I80" s="36" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>146</v>
       </c>
@@ -3994,11 +4283,15 @@
       <c r="H81" s="34">
         <v>351.75</v>
       </c>
-      <c r="I81" s="47" t="s">
+      <c r="I81" s="36" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>147</v>
       </c>
@@ -4019,11 +4312,15 @@
       <c r="H82" s="34">
         <v>472.5</v>
       </c>
-      <c r="I82" s="47" t="s">
+      <c r="I82" s="36" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>241</v>
       </c>
@@ -4044,11 +4341,15 @@
       <c r="H83" s="34">
         <v>372.75</v>
       </c>
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="36" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>354.11250000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>148</v>
       </c>
@@ -4071,11 +4372,15 @@
       <c r="H84" s="34">
         <v>341.25</v>
       </c>
-      <c r="I84" s="47" t="s">
+      <c r="I84" s="36" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>324.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>149</v>
       </c>
@@ -4096,11 +4401,15 @@
       <c r="H85" s="34">
         <v>472.5</v>
       </c>
-      <c r="I85" s="47" t="s">
+      <c r="I85" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>150</v>
       </c>
@@ -4123,11 +4432,15 @@
       <c r="H86" s="34">
         <v>294</v>
       </c>
-      <c r="I86" s="47" t="s">
+      <c r="I86" s="36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>279.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>53</v>
       </c>
@@ -4152,11 +4465,15 @@
       <c r="H87" s="34">
         <v>210</v>
       </c>
-      <c r="I87" s="47" t="s">
+      <c r="I87" s="36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>151</v>
       </c>
@@ -4177,11 +4494,15 @@
       <c r="H88" s="34">
         <v>414.75</v>
       </c>
-      <c r="I88" s="47" t="s">
+      <c r="I88" s="36" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>394.01249999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>152</v>
       </c>
@@ -4202,11 +4523,15 @@
       <c r="H89" s="34">
         <v>346.5</v>
       </c>
-      <c r="I89" s="47" t="s">
+      <c r="I89" s="36" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>153</v>
       </c>
@@ -4227,11 +4552,14 @@
       <c r="H90" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I90" s="47" t="s">
+      <c r="I90" s="36" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>154</v>
       </c>
@@ -4252,11 +4580,15 @@
       <c r="H91" s="34">
         <v>341.25</v>
       </c>
-      <c r="I91" s="47" t="s">
+      <c r="I91" s="36" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>324.1875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>156</v>
       </c>
@@ -4277,11 +4609,15 @@
       <c r="H92" s="34">
         <v>357</v>
       </c>
-      <c r="I92" s="47" t="s">
+      <c r="I92" s="36" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>157</v>
       </c>
@@ -4302,11 +4638,14 @@
       <c r="H93" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I93" s="47" t="s">
+      <c r="I93" s="36" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>158</v>
       </c>
@@ -4327,11 +4666,15 @@
       <c r="H94" s="34">
         <v>514.5</v>
       </c>
-      <c r="I94" s="47" t="s">
+      <c r="I94" s="36" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>488.77499999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>159</v>
       </c>
@@ -4354,11 +4697,14 @@
       <c r="H95" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I95" s="47" t="s">
+      <c r="I95" s="36" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>160</v>
       </c>
@@ -4379,11 +4725,15 @@
       <c r="H96" s="34">
         <v>388.5</v>
       </c>
-      <c r="I96" s="47" t="s">
+      <c r="I96" s="36" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>161</v>
       </c>
@@ -4404,11 +4754,14 @@
       <c r="H97" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I97" s="47" t="s">
+      <c r="I97" s="36" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>163</v>
       </c>
@@ -4429,11 +4782,15 @@
       <c r="H98" s="34">
         <v>357</v>
       </c>
-      <c r="I98" s="47" t="s">
+      <c r="I98" s="36" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>166</v>
       </c>
@@ -4454,11 +4811,15 @@
       <c r="H99" s="34">
         <v>362.25</v>
       </c>
-      <c r="I99" s="47" t="s">
+      <c r="I99" s="36" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>167</v>
       </c>
@@ -4479,11 +4840,15 @@
       <c r="H100" s="34">
         <v>357</v>
       </c>
-      <c r="I100" s="47" t="s">
+      <c r="I100" s="36" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>168</v>
       </c>
@@ -4504,11 +4869,15 @@
       <c r="H101" s="34">
         <v>357</v>
       </c>
-      <c r="I101" s="47" t="s">
+      <c r="I101" s="36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>169</v>
       </c>
@@ -4529,11 +4898,15 @@
       <c r="H102" s="34">
         <v>362.25</v>
       </c>
-      <c r="I102" s="47" t="s">
+      <c r="I102" s="36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>171</v>
       </c>
@@ -4554,11 +4927,15 @@
       <c r="H103" s="34">
         <v>372.75</v>
       </c>
-      <c r="I103" s="47" t="s">
+      <c r="I103" s="36" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>354.11250000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>172</v>
       </c>
@@ -4579,11 +4956,15 @@
       <c r="H104" s="34">
         <v>378</v>
       </c>
-      <c r="I104" s="47" t="s">
+      <c r="I104" s="36" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>359.09999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>173</v>
       </c>
@@ -4604,11 +4985,15 @@
       <c r="H105" s="34">
         <v>294</v>
       </c>
-      <c r="I105" s="47" t="s">
+      <c r="I105" s="36" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>279.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>174</v>
       </c>
@@ -4629,11 +5014,15 @@
       <c r="H106" s="34">
         <v>346.5</v>
       </c>
-      <c r="I106" s="47" t="s">
+      <c r="I106" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>242</v>
       </c>
@@ -4654,11 +5043,14 @@
       <c r="H107" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I107" s="47" t="s">
+      <c r="I107" s="36" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>243</v>
       </c>
@@ -4679,11 +5071,15 @@
       <c r="H108" s="34">
         <v>441</v>
       </c>
-      <c r="I108" s="47" t="s">
+      <c r="I108" s="36" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>418.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
         <v>175</v>
       </c>
@@ -4704,23 +5100,31 @@
       <c r="H109" s="34">
         <v>304.5</v>
       </c>
-      <c r="I109" s="47" t="s">
+      <c r="I109" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38" t="s">
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>289.27499999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>177</v>
       </c>
@@ -4741,11 +5145,15 @@
       <c r="H111" s="34">
         <v>357</v>
       </c>
-      <c r="I111" s="47" t="s">
+      <c r="I111" s="36" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>178</v>
       </c>
@@ -4766,11 +5174,15 @@
       <c r="H112" s="34">
         <v>362.25</v>
       </c>
-      <c r="I112" s="47" t="s">
+      <c r="I112" s="36" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>179</v>
       </c>
@@ -4791,11 +5203,15 @@
       <c r="H113" s="34">
         <v>451.5</v>
       </c>
-      <c r="I113" s="47" t="s">
+      <c r="I113" s="36" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>181</v>
       </c>
@@ -4816,11 +5232,15 @@
       <c r="H114" s="34">
         <v>362.25</v>
       </c>
-      <c r="I114" s="47" t="s">
+      <c r="I114" s="36" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>182</v>
       </c>
@@ -4841,11 +5261,15 @@
       <c r="H115" s="34">
         <v>472.5</v>
       </c>
-      <c r="I115" s="47" t="s">
+      <c r="I115" s="36" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>183</v>
       </c>
@@ -4866,11 +5290,14 @@
       <c r="H116" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I116" s="47" t="s">
+      <c r="I116" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>184</v>
       </c>
@@ -4891,23 +5318,30 @@
       <c r="H117" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I117" s="47" t="s">
+      <c r="I117" s="36" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="38" t="s">
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>186</v>
       </c>
@@ -4930,11 +5364,15 @@
       <c r="H119" s="34">
         <v>357</v>
       </c>
-      <c r="I119" s="47" t="s">
+      <c r="I119" s="36" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>187</v>
       </c>
@@ -4957,11 +5395,15 @@
       <c r="H120" s="34">
         <v>330.75</v>
       </c>
-      <c r="I120" s="47" t="s">
+      <c r="I120" s="36" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>314.21249999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>188</v>
       </c>
@@ -4984,11 +5426,15 @@
       <c r="H121" s="34">
         <v>320.25</v>
       </c>
-      <c r="I121" s="47" t="s">
+      <c r="I121" s="36" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>304.23750000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>189</v>
       </c>
@@ -5011,11 +5457,15 @@
       <c r="H122" s="34">
         <v>357</v>
       </c>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="36" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>190</v>
       </c>
@@ -5038,11 +5488,15 @@
       <c r="H123" s="34">
         <v>357</v>
       </c>
-      <c r="I123" s="47" t="s">
+      <c r="I123" s="36" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>191</v>
       </c>
@@ -5063,11 +5517,15 @@
       <c r="H124" s="34">
         <v>336</v>
       </c>
-      <c r="I124" s="47" t="s">
+      <c r="I124" s="36" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>192</v>
       </c>
@@ -5088,11 +5546,15 @@
       <c r="H125" s="34">
         <v>357</v>
       </c>
-      <c r="I125" s="47" t="s">
+      <c r="I125" s="36" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>193</v>
       </c>
@@ -5115,11 +5577,15 @@
       <c r="H126" s="34">
         <v>362.25</v>
       </c>
-      <c r="I126" s="47" t="s">
+      <c r="I126" s="36" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>194</v>
       </c>
@@ -5140,11 +5606,15 @@
       <c r="H127" s="34">
         <v>388.5</v>
       </c>
-      <c r="I127" s="47" t="s">
+      <c r="I127" s="36" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>195</v>
       </c>
@@ -5165,11 +5635,15 @@
       <c r="H128" s="34">
         <v>362.25</v>
       </c>
-      <c r="I128" s="47" t="s">
+      <c r="I128" s="36" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>196</v>
       </c>
@@ -5190,11 +5664,15 @@
       <c r="H129" s="34">
         <v>357</v>
       </c>
-      <c r="I129" s="47" t="s">
+      <c r="I129" s="36" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>197</v>
       </c>
@@ -5215,11 +5693,15 @@
       <c r="H130" s="34">
         <v>362.25</v>
       </c>
-      <c r="I130" s="47" t="s">
+      <c r="I130" s="36" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>198</v>
       </c>
@@ -5240,11 +5722,15 @@
       <c r="H131" s="34">
         <v>404.25</v>
       </c>
-      <c r="I131" s="47" t="s">
+      <c r="I131" s="36" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <f t="shared" si="1"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>199</v>
       </c>
@@ -5265,11 +5751,14 @@
       <c r="H132" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I132" s="47" t="s">
+      <c r="I132" s="36" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>200</v>
       </c>
@@ -5290,11 +5779,14 @@
       <c r="H133" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I133" s="47" t="s">
+      <c r="I133" s="36" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>201</v>
       </c>
@@ -5315,11 +5807,14 @@
       <c r="H134" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I134" s="47" t="s">
+      <c r="I134" s="36" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>202</v>
       </c>
@@ -5340,11 +5835,14 @@
       <c r="H135" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I135" s="47" t="s">
+      <c r="I135" s="36" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>203</v>
       </c>
@@ -5365,11 +5863,15 @@
       <c r="H136" s="34">
         <v>357</v>
       </c>
-      <c r="I136" s="47" t="s">
+      <c r="I136" s="36" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f t="shared" ref="J134:J169" si="2">H136*0.95</f>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
         <v>205</v>
       </c>
@@ -5390,23 +5892,31 @@
       <c r="H137" s="34">
         <v>451.5</v>
       </c>
-      <c r="I137" s="47" t="s">
+      <c r="I137" s="36" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="38" t="s">
+      <c r="J137">
+        <f t="shared" si="2"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="J138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>207</v>
       </c>
@@ -5427,11 +5937,15 @@
       <c r="H139" s="34">
         <v>357</v>
       </c>
-      <c r="I139" s="47" t="s">
+      <c r="I139" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <f t="shared" si="2"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>209</v>
       </c>
@@ -5452,11 +5966,15 @@
       <c r="H140" s="34">
         <v>351.75</v>
       </c>
-      <c r="I140" s="47" t="s">
+      <c r="I140" s="36" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <f t="shared" si="2"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>210</v>
       </c>
@@ -5477,11 +5995,15 @@
       <c r="H141" s="34">
         <v>351.75</v>
       </c>
-      <c r="I141" s="47" t="s">
+      <c r="I141" s="36" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f t="shared" si="2"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>211</v>
       </c>
@@ -5502,23 +6024,31 @@
       <c r="H142" s="34">
         <v>472.5</v>
       </c>
-      <c r="I142" s="47" t="s">
+      <c r="I142" s="36" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="38" t="s">
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>213</v>
       </c>
@@ -5539,11 +6069,15 @@
       <c r="H144" s="34">
         <v>362.25</v>
       </c>
-      <c r="I144" s="47" t="s">
+      <c r="I144" s="36" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>214</v>
       </c>
@@ -5564,11 +6098,14 @@
       <c r="H145" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I145" s="47" t="s">
+      <c r="I145" s="36" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>215</v>
       </c>
@@ -5589,11 +6126,14 @@
       <c r="H146" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I146" s="47" t="s">
+      <c r="I146" s="36" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>216</v>
       </c>
@@ -5614,11 +6154,14 @@
       <c r="H147" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I147" s="47" t="s">
+      <c r="I147" s="36" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>217</v>
       </c>
@@ -5639,11 +6182,14 @@
       <c r="H148" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I148" s="47" t="s">
+      <c r="I148" s="36" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>218</v>
       </c>
@@ -5664,11 +6210,15 @@
       <c r="H149" s="34">
         <v>399</v>
       </c>
-      <c r="I149" s="47" t="s">
+      <c r="I149" s="36" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>219</v>
       </c>
@@ -5689,11 +6239,15 @@
       <c r="H150" s="34">
         <v>399</v>
       </c>
-      <c r="I150" s="47" t="s">
+      <c r="I150" s="36" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>220</v>
       </c>
@@ -5714,11 +6268,15 @@
       <c r="H151" s="34">
         <v>0</v>
       </c>
-      <c r="I151" s="47" t="s">
+      <c r="I151" s="36" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
         <v>221</v>
       </c>
@@ -5739,23 +6297,30 @@
       <c r="H152" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I152" s="47" t="s">
+      <c r="I152" s="36" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="40" t="s">
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-    </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>224</v>
       </c>
@@ -5778,23 +6343,31 @@
       <c r="H154" s="34">
         <v>395.85</v>
       </c>
-      <c r="I154" s="47" t="s">
+      <c r="I154" s="36" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="38" t="s">
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>376.0575</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-      <c r="F155" s="39"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="39"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>226</v>
       </c>
@@ -5817,11 +6390,15 @@
       <c r="H156" s="34">
         <v>451.5</v>
       </c>
-      <c r="I156" s="47" t="s">
+      <c r="I156" s="36" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
         <v>227</v>
       </c>
@@ -5844,23 +6421,30 @@
       <c r="H157" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I157" s="47" t="s">
+      <c r="I157" s="36" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="38" t="s">
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="39"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20" t="s">
         <v>244</v>
       </c>
@@ -5881,23 +6465,31 @@
       <c r="H159" s="34">
         <v>336</v>
       </c>
-      <c r="I159" s="47" t="s">
+      <c r="I159" s="36" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="36" t="s">
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B160" s="37"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>231</v>
       </c>
@@ -5918,11 +6510,15 @@
       <c r="H161" s="34">
         <v>346.5</v>
       </c>
-      <c r="I161" s="47" t="s">
+      <c r="I161" s="36" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
         <v>232</v>
       </c>
@@ -5943,23 +6539,31 @@
       <c r="H162" s="34">
         <v>404.25</v>
       </c>
-      <c r="I162" s="47" t="s">
+      <c r="I162" s="36" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="38" t="s">
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-      <c r="F163" s="39"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="39"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="41"/>
+      <c r="F163" s="41"/>
+      <c r="G163" s="41"/>
+      <c r="H163" s="41"/>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>234</v>
       </c>
@@ -5982,11 +6586,14 @@
       <c r="H164" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="I164" s="47" t="s">
+      <c r="I164" s="36" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>235</v>
       </c>
@@ -6009,11 +6616,14 @@
       <c r="H165" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I165" s="47" t="s">
+      <c r="I165" s="36" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
         <v>236</v>
       </c>
@@ -6036,11 +6646,14 @@
       <c r="H166" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I166" s="47" t="s">
+      <c r="I166" s="36" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>237</v>
       </c>
@@ -6063,11 +6676,14 @@
       <c r="H167" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I167" s="47" t="s">
+      <c r="I167" s="36" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>238</v>
       </c>
@@ -6090,11 +6706,14 @@
       <c r="H168" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I168" s="47" t="s">
+      <c r="I168" s="36" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="31" t="s">
         <v>239</v>
       </c>
@@ -6117,12 +6736,23 @@
       <c r="H169" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I169" s="47" t="s">
+      <c r="I169" s="36" t="s">
         <v>394</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A160:H160"/>
+    <mergeCell ref="A163:H163"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A138:H138"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A158:H158"/>
     <mergeCell ref="A110:H110"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -6135,16 +6765,1250 @@
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A160:H160"/>
-    <mergeCell ref="A163:H163"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A138:H138"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="A155:H155"/>
-    <mergeCell ref="A158:H158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCA5773-5DD2-43BD-9DC1-44EABD9536D1}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:A102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34">
+        <v>493.5</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="48">
+        <f>A1*0.95</f>
+        <v>468.82499999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="48">
+        <f t="shared" ref="C2:C40" si="0">A2*0.95</f>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="48">
+        <f t="shared" si="0"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>267.75</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="48">
+        <f t="shared" si="0"/>
+        <v>254.36249999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>367.5</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="48">
+        <f t="shared" si="0"/>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="48">
+        <f t="shared" si="0"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="48">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>404.25</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="48">
+        <f t="shared" si="0"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>388.5</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="48">
+        <f t="shared" si="0"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>320.25</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="48">
+        <f t="shared" si="0"/>
+        <v>304.23750000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>346.5</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="48">
+        <f t="shared" si="0"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>346.5</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="48">
+        <f t="shared" si="0"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>299.25</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="48">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>313.95</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="48">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>313.95</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="48">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>313.95</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="48">
+        <f t="shared" si="0"/>
+        <v>298.2525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>299.25</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>210</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="48">
+        <f t="shared" si="0"/>
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>309.75</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="48">
+        <f t="shared" si="0"/>
+        <v>294.26249999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>1029</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="48">
+        <f t="shared" si="0"/>
+        <v>977.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>2100</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="48">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>52.5</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="48">
+        <f t="shared" si="0"/>
+        <v>49.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>59.85</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="48">
+        <f t="shared" si="0"/>
+        <v>56.857500000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>325.5</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="48">
+        <f t="shared" si="0"/>
+        <v>309.22499999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>299.25</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="48">
+        <f t="shared" si="0"/>
+        <v>284.28749999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>136.5</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="48">
+        <f t="shared" si="0"/>
+        <v>129.67499999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>252</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="48">
+        <f t="shared" si="0"/>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>546</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="48">
+        <f t="shared" si="0"/>
+        <v>518.69999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>189</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="48">
+        <f t="shared" si="0"/>
+        <v>179.54999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>136.5</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="48">
+        <f t="shared" si="0"/>
+        <v>129.67499999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>120.75</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="48">
+        <f t="shared" si="0"/>
+        <v>114.71249999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>399</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="48">
+        <f t="shared" si="0"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>456.75</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="48">
+        <f t="shared" si="0"/>
+        <v>433.91249999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>456.75</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="48">
+        <f t="shared" si="0"/>
+        <v>433.91249999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>498.75</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="48">
+        <f t="shared" si="0"/>
+        <v>473.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="48">
+        <f t="shared" si="0"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="48">
+        <f t="shared" si="0"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="48">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="48">
+        <f t="shared" si="0"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>399</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="48">
+        <f t="shared" si="0"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>367.5</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="48">
+        <f t="shared" ref="C41:C102" si="1">A41*0.95</f>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>367.5</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="48">
+        <f t="shared" si="1"/>
+        <v>349.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>357</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="48">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <v>351.75</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="48">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="48">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>351.75</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="48">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="48">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>372.75</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="48">
+        <f t="shared" si="1"/>
+        <v>354.11250000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>341.25</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="48">
+        <f t="shared" si="1"/>
+        <v>324.1875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="48">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
+        <v>294</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="48">
+        <f t="shared" si="1"/>
+        <v>279.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
+        <v>210</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C53" s="48">
+        <f t="shared" si="1"/>
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
+        <v>414.75</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="48">
+        <f t="shared" si="1"/>
+        <v>394.01249999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
+        <v>346.5</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="48">
+        <f t="shared" si="1"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>341.25</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="48">
+        <f t="shared" si="1"/>
+        <v>324.1875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <v>357</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>514.5</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="48">
+        <f t="shared" si="1"/>
+        <v>488.77499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>388.5</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" s="48">
+        <f t="shared" si="1"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
+        <v>357</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
+        <v>357</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
+        <v>357</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
+        <v>372.75</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" s="48">
+        <f t="shared" si="1"/>
+        <v>354.11250000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
+        <v>378</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" s="48">
+        <f t="shared" si="1"/>
+        <v>359.09999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <v>294</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="48">
+        <f t="shared" si="1"/>
+        <v>279.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <v>346.5</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="48">
+        <f t="shared" si="1"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
+        <v>441</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" s="48">
+        <f t="shared" si="1"/>
+        <v>418.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <v>304.5</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" s="48">
+        <f t="shared" si="1"/>
+        <v>289.27499999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <v>357</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" s="48">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" s="48">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
+        <v>357</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C76" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
+        <v>330.75</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C77" s="48">
+        <f t="shared" si="1"/>
+        <v>314.21249999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="34">
+        <v>320.25</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="48">
+        <f t="shared" si="1"/>
+        <v>304.23750000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
+        <v>357</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="34">
+        <v>357</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C80" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="34">
+        <v>336</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="48">
+        <f t="shared" si="1"/>
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="34">
+        <v>357</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="34">
+        <v>388.5</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C84" s="48">
+        <f t="shared" si="1"/>
+        <v>369.07499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C85" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="34">
+        <v>357</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C87" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
+        <v>404.25</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C88" s="48">
+        <f t="shared" si="1"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
+        <v>357</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C89" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" s="48">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="34">
+        <v>357</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" s="48">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="34">
+        <v>351.75</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="48">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="34">
+        <v>351.75</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="48">
+        <f t="shared" si="1"/>
+        <v>334.16249999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="34">
+        <v>472.5</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="48">
+        <f t="shared" si="1"/>
+        <v>448.875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="34">
+        <v>399</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" s="48">
+        <f t="shared" si="1"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="34">
+        <v>399</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" s="48">
+        <f t="shared" si="1"/>
+        <v>379.04999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="34">
+        <v>362.25</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" s="48">
+        <f t="shared" si="1"/>
+        <v>344.13749999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
+        <v>395.85</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="48">
+        <f t="shared" si="1"/>
+        <v>376.0575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
+        <v>451.5</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" s="48">
+        <f t="shared" si="1"/>
+        <v>428.92499999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
+        <v>336</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="48">
+        <f t="shared" si="1"/>
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="34">
+        <v>346.5</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="48">
+        <f t="shared" si="1"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="34">
+        <v>404.25</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="48">
+        <f t="shared" si="1"/>
+        <v>384.03749999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>